--- a/branches/master/StructureDefinition-ViralHepatitisCaseReportFormModel.xlsx
+++ b/branches/master/StructureDefinition-ViralHepatitisCaseReportFormModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="249">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:22:23+00:00</t>
+    <t>2022-08-11T06:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -710,6 +710,69 @@
   </si>
   <si>
     <t>Does the client have history of HIV treatment prior to enrollment?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisCaseReportFormModel.DidTheClientTestedPositiveToAnyOfTheFollowing</t>
+  </si>
+  <si>
+    <t>Client's History of Testing Positive to the following illnesses (HIV, Hepatitis B, and Hepatitis C)</t>
+  </si>
+  <si>
+    <t>Did the client tested positive for HIV, Hepatitis B, or Hepatitis C prior to baseline diagnosis of hepatitis?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisCaseReportFormModel.DidTheClientTestedPositiveToAnyOfTheFollowing.HIVIfTheClientHasHistoryOfTakingAntiretroviralDrugForHIV</t>
+  </si>
+  <si>
+    <t>The Client has history of testing positive for HIV prior to the baseline diagnosis of viral hepatitis</t>
+  </si>
+  <si>
+    <t>Did the client tested positive for HIV prior to baseline diagnosis of hepatitis?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisCaseReportFormModel.DidTheClientTestedPositiveToAnyOfTheFollowing.HIVIfTheClientHasHistoryOfTakingAntiretroviralDrugForHIV.NoYesHIVMedsTaken</t>
+  </si>
+  <si>
+    <t>List of Antiretroviral Drugs for HIV Taken</t>
+  </si>
+  <si>
+    <t>If the client has history of taking antiretroviral drugs, please specify the drug(s) used</t>
+  </si>
+  <si>
+    <t>ViralHepatitisCaseReportFormModel.DidTheClientTestedPositiveToAnyOfTheFollowing.HepatitisBIfTheClientHasHistoryOfTakingAntiviralDrugForHepB</t>
+  </si>
+  <si>
+    <t>The Client has history of testing positive for Hepatitis B prior to the baseline diagnosis of viral hepatitis</t>
+  </si>
+  <si>
+    <t>Did the client tested positive for Hepatitis B prior to baseline diagnosis of hepatitis?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisCaseReportFormModel.DidTheClientTestedPositiveToAnyOfTheFollowing.HepatitisBIfTheClientHasHistoryOfTakingAntiviralDrugForHepB.NoYesHepatitisBMedsTaken</t>
+  </si>
+  <si>
+    <t>List of Antiviral Drugs for Hepatitis B Taken</t>
+  </si>
+  <si>
+    <t>If the client has history of taking antiviral drugs for Hepatitis B, please specify the drug(s) used</t>
+  </si>
+  <si>
+    <t>ViralHepatitisCaseReportFormModel.DidTheClientTestedPositiveToAnyOfTheFollowing.HepatitisCIfTheClientHasHistoryOfTakingAntiviralDrugForHepC</t>
+  </si>
+  <si>
+    <t>The Client has history of testing positive for Hepatitis C prior to the baseline diagnosis of viral hepatitis</t>
+  </si>
+  <si>
+    <t>Did the client tested positive for Hepatitis C prior to baseline diagnosis of hepatitis?</t>
+  </si>
+  <si>
+    <t>ViralHepatitisCaseReportFormModel.DidTheClientTestedPositiveToAnyOfTheFollowing.HepatitisCIfTheClientHasHistoryOfTakingAntiviralDrugForHepC.NoYesHepatitisCMedsTaken</t>
+  </si>
+  <si>
+    <t>List of Antiviral Drugs for Hepatitis C Taken</t>
+  </si>
+  <si>
+    <t>If the client has history of taking antiviral drugs for Hepatitis C, please specify the drug(s) used</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ59"/>
+  <dimension ref="A1:AJ66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1023,7 +1086,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="100.296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="164.25390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1033,7 +1096,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1053,7 +1116,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="100.296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="164.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -6971,6 +7034,706 @@
         <v>71</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
